--- a/income_report/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Responses).xlsx
+++ b/income_report/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Responses).xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frong\Desktop\rpa-final-project\income_report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290844D2-E418-413F-86EF-D4014C9B3DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="735" yWindow="735" windowWidth="14400" windowHeight="8273" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Total Report" sheetId="2" r:id="rId1"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
   <si>
     <t>Timestamp</t>
   </si>
@@ -71,22 +81,29 @@
   </si>
   <si>
     <t>09</t>
+  </si>
+  <si>
+    <t>ยอดขาย(บาท)</t>
+  </si>
+  <si>
+    <t>รวม</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -96,43 +113,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -322,26 +342,82 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC5D62D-04A4-4F73-AE76-A709E46C8A19}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>69700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="13" width="21.57"/>
+    <col min="1" max="13" width="21.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -364,7 +440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44138.543107523146</v>
       </c>
@@ -378,18 +454,18 @@
         <v>9</v>
       </c>
       <c r="E2" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>44138.54347820602</v>
+        <v>44138.543478206018</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -398,21 +474,21 @@
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="F3" s="2">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>44138.55599320601</v>
+        <v>44138.555993206013</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -421,21 +497,21 @@
         <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>44138.55626982639</v>
+        <v>44138.556269826389</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -447,16 +523,16 @@
         <v>9</v>
       </c>
       <c r="E5" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44138.556422037036</v>
       </c>
@@ -467,21 +543,21 @@
         <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
-        <v>44138.5567965625</v>
+        <v>44138.556796562501</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -490,21 +566,21 @@
         <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="F7" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>44138.55699790509</v>
+        <v>44138.556997905092</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
@@ -513,19 +589,19 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44138.557454062495</v>
       </c>
@@ -536,19 +612,19 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44138.55782908565</v>
       </c>
@@ -559,21 +635,21 @@
         <v>14</v>
       </c>
       <c r="D10" s="2">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="F10" s="2">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
-        <v>44138.55812045139</v>
+        <v>44138.558120451387</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -582,21 +658,21 @@
         <v>15</v>
       </c>
       <c r="D11" s="2">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
-        <v>44138.55833806713</v>
+        <v>44138.558338067131</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -605,21 +681,21 @@
         <v>12</v>
       </c>
       <c r="D12" s="2">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="F12" s="2">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
-        <v>44138.55951357639</v>
+        <v>44138.559513576387</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -628,19 +704,19 @@
         <v>14</v>
       </c>
       <c r="D13" s="2">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>44138.56005803241</v>
       </c>
@@ -651,19 +727,19 @@
         <v>16</v>
       </c>
       <c r="D14" s="2">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>44138.56023505787</v>
       </c>
@@ -674,21 +750,21 @@
         <v>16</v>
       </c>
       <c r="D15" s="2">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="F15" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
-        <v>44138.56052025463</v>
+        <v>44138.560520254628</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
@@ -697,21 +773,21 @@
         <v>8</v>
       </c>
       <c r="D16" s="2">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
-        <v>44138.56079511574</v>
+        <v>44138.560795115744</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -720,19 +796,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="2">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>44138.564015173615</v>
       </c>
@@ -746,18 +822,18 @@
         <v>19</v>
       </c>
       <c r="E18" s="2">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
-        <v>44138.56549525463</v>
+        <v>44138.565495254632</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -766,21 +842,21 @@
         <v>15</v>
       </c>
       <c r="D19" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
-        <v>44138.56565898148</v>
+        <v>44138.565658981483</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -789,21 +865,21 @@
         <v>15</v>
       </c>
       <c r="D20" s="2">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="F20" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
-        <v>44138.5662078125</v>
+        <v>44138.566207812502</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
@@ -812,19 +888,19 @@
         <v>12</v>
       </c>
       <c r="D21" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="F21" s="2">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>